--- a/noscale.xlsx
+++ b/noscale.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="20">
   <si>
     <t xml:space="preserve">RF Dist with </t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Sequence 10</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>Wrong O/P</t>
   </si>
 </sst>
 </file>
@@ -404,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="N67" sqref="N67"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,7 +465,9 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -494,7 +502,9 @@
       <c r="F3" s="1">
         <v>28</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>56</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1">
         <v>22</v>
@@ -527,7 +537,9 @@
       <c r="F4" s="1">
         <v>32</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>56</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1">
         <v>34</v>
@@ -560,7 +572,9 @@
       <c r="F5" s="1">
         <v>46</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>52</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
         <v>50</v>
@@ -591,7 +605,9 @@
       <c r="F6" s="1">
         <v>56</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
@@ -686,7 +702,9 @@
       <c r="F10" s="1">
         <v>30</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>46</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
         <v>22</v>
@@ -718,7 +736,9 @@
       <c r="F11" s="1">
         <v>36</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
         <v>34</v>
@@ -750,7 +770,9 @@
       <c r="F12" s="1">
         <v>46</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>54</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
         <v>48</v>
@@ -895,7 +917,9 @@
       <c r="F17" s="1">
         <v>28</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>56</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1">
         <v>20</v>
@@ -928,7 +952,9 @@
       <c r="F18" s="1">
         <v>28</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>56</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
         <v>30</v>
@@ -961,7 +987,9 @@
       <c r="F19" s="1">
         <v>52</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>64</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
         <v>54</v>
@@ -1089,7 +1117,9 @@
       <c r="F24" s="1">
         <v>30</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>44</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>26</v>
@@ -1122,7 +1152,9 @@
       <c r="F25" s="1">
         <v>36</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>44</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
         <v>32</v>
@@ -1155,7 +1187,9 @@
       <c r="F26" s="1">
         <v>50</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>52</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>44</v>
@@ -1281,7 +1315,9 @@
       <c r="F31" s="1">
         <v>24</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>52</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1">
         <v>14</v>
@@ -1313,7 +1349,9 @@
       <c r="F32" s="1">
         <v>24</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>44</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
         <v>16</v>
@@ -1345,7 +1383,9 @@
       <c r="F33" s="1">
         <v>46</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>48</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
         <v>46</v>
@@ -1471,7 +1511,9 @@
       <c r="F38" s="1">
         <v>34</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>48</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1">
         <v>26</v>
@@ -1504,7 +1546,9 @@
       <c r="F39" s="1">
         <v>40</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>52</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1">
         <v>36</v>
@@ -1537,7 +1581,9 @@
       <c r="F40" s="1">
         <v>56</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <v>56</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1">
         <v>52</v>
@@ -1665,7 +1711,9 @@
       <c r="F45" s="1">
         <v>28</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>50</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1">
         <v>30</v>
@@ -1698,7 +1746,9 @@
       <c r="F46" s="1">
         <v>36</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>56</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1">
         <v>34</v>
@@ -1731,7 +1781,9 @@
       <c r="F47" s="1">
         <v>54</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>60</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1">
         <v>54</v>
@@ -1881,7 +1933,9 @@
       <c r="F53" s="1">
         <v>26</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1">
+        <v>48</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1">
         <v>30</v>
@@ -1915,7 +1969,9 @@
       <c r="F54" s="1">
         <v>20</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <v>48</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1">
         <v>34</v>
@@ -1949,7 +2005,9 @@
       <c r="F55" s="1">
         <v>46</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <v>50</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1">
         <v>44</v>
@@ -2077,7 +2135,9 @@
       <c r="F60" s="1">
         <v>24</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <v>50</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1">
         <v>20</v>
@@ -2109,7 +2169,9 @@
       <c r="F61" s="1">
         <v>32</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <v>46</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1">
         <v>34</v>
@@ -2141,7 +2203,9 @@
       <c r="F62" s="1">
         <v>42</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <v>48</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1">
         <v>48</v>
@@ -2267,7 +2331,9 @@
       <c r="F67" s="1">
         <v>26</v>
       </c>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1">
+        <v>40</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1">
         <v>18</v>
@@ -2300,7 +2366,9 @@
       <c r="F68" s="1">
         <v>28</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <v>38</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1">
         <v>24</v>
@@ -2333,7 +2401,9 @@
       <c r="F69" s="1">
         <v>40</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <v>46</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1">
         <v>50</v>
